--- a/biology/Zoologie/Dipsas_elegans/Dipsas_elegans.xlsx
+++ b/biology/Zoologie/Dipsas_elegans/Dipsas_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipsas elegans  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipsas elegans  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Équateur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Équateur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Dipsas elegans[2] mesure 310 mm dont 80 mm pour la queue. Cette espèce a la face dorsale brun pâle et présente de nombreuses rayures transversales brun noirâtre plus claires au centre, la partie antérieure étant divisée en deux. Sa tête est tachetée et marbrée de noirâtre. Sa face ventrale est blanchâtre tacheté de brun noirâtre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Dipsas elegans mesure 310 mm dont 80 mm pour la queue. Cette espèce a la face dorsale brun pâle et présente de nombreuses rayures transversales brun noirâtre plus claires au centre, la partie antérieure étant divisée en deux. Sa tête est tachetée et marbrée de noirâtre. Sa face ventrale est blanchâtre tacheté de brun noirâtre.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1896 : Catalogue of the snakes in the British Museum. London, Taylor &amp; Francis, vol. 3, p. 1-727 (texte intégral).</t>
         </is>
